--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35274.93539759537</v>
+        <v>7015107.160638181</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35274.93539759537</v>
+        <v>7015107.160638181</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21680.90540292891</v>
+        <v>1306173.416560298</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21680.90540292891</v>
+        <v>1306173.416560298</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1267289325.342319</v>
+        <v>52187613.87516747</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12356.24630265777</v>
+        <v>1356949.519673607</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22619.93403821469</v>
+        <v>2368812.590718408</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32883.62177377161</v>
+        <v>3380675.661763212</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43586.79355823745</v>
+        <v>4390345.002745564</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54290.55631615516</v>
+        <v>5400410.470426604</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64995.71868704654</v>
+        <v>6410475.93810764</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75700.88105793791</v>
+        <v>7420541.405788675</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86406.04342882929</v>
+        <v>8430606.873469708</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97111.83386118533</v>
+        <v>9440108.475668285</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107816.9534986116</v>
+        <v>10449755.1126576</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118521.6326751125</v>
+        <v>11459401.74964692</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129227.1927734641</v>
+        <v>12469048.38663624</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139922.7536992094</v>
+        <v>13479105.56392739</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150627.3713059036</v>
+        <v>14488652.29680103</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161332.0504824045</v>
+        <v>15498298.93379035</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>782</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
